--- a/Lav3/L32.xlsx
+++ b/Lav3/L32.xlsx
@@ -56,12 +56,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tudor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+128x72 mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tudor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+128x72 mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tudor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+128x72 mesh</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Input size (cells)</t>
   </si>
@@ -74,12 +146,21 @@
   <si>
     <t>DP</t>
   </si>
+  <si>
+    <t>ACCELERATED</t>
+  </si>
+  <si>
+    <t>Original code on GTX 860M (600 ms)</t>
+  </si>
+  <si>
+    <t>(6000 = 23.637)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +180,15 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,8 +211,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +259,1928 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.353000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171.81899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>311.47399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.422000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.125999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168.398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.49799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.124000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296.95699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.55799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225.851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="204375648"/>
+        <c:axId val="204376208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="204375648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204376208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204376208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204375648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.457000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="662534304"/>
+        <c:axId val="662534864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="662534304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662534864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="662534864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662534304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,15 +2446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -447,7 +2462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>32</v>
       </c>
@@ -469,7 +2484,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>64</v>
       </c>
@@ -486,7 +2501,7 @@
         <v>3.923</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>256</v>
       </c>
@@ -503,7 +2518,7 @@
         <v>9.7539999999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1024</v>
       </c>
@@ -520,7 +2535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4096</v>
       </c>
@@ -537,7 +2552,7 @@
         <v>129.55799999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>9216</v>
       </c>
@@ -554,23 +2569,427 @@
         <v>225.851</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>16384</v>
-      </c>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>36864</v>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>65536</v>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>256</v>
+      </c>
+      <c r="F14">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>6.8339999999999996</v>
+      </c>
+      <c r="D15">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="E15">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="F15">
+        <v>3.9180000000000001</v>
+      </c>
+      <c r="H15">
+        <f>C4/C15</f>
+        <v>2.1100380450687739</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:K19" si="0">D4/D15</f>
+        <v>3.9281711665817625</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.0035659704533877</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1.0012761613067891</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>256</v>
+      </c>
+      <c r="C16">
+        <v>12.5</v>
+      </c>
+      <c r="D16">
+        <v>12.932</v>
+      </c>
+      <c r="E16">
+        <v>12.833</v>
+      </c>
+      <c r="F16">
+        <v>9.891</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H19" si="1">C5/C16</f>
+        <v>1.7043999999999999</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1.6649396845035569</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1.7782280059222317</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.98614902436558483</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1024</v>
+      </c>
+      <c r="C17">
+        <v>36.753</v>
+      </c>
+      <c r="D17">
+        <v>35.89</v>
+      </c>
+      <c r="E17">
+        <v>35.457000000000001</v>
+      </c>
+      <c r="F17">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.288411830326776</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1.3409306213429923</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.3572496263079223</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.97780126849894278</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4096</v>
+      </c>
+      <c r="C18">
+        <v>129.18799999999999</v>
+      </c>
+      <c r="D18">
+        <v>135.03</v>
+      </c>
+      <c r="E18">
+        <v>129.31</v>
+      </c>
+      <c r="F18">
+        <v>129.685</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1.3299919497166919</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1.2471154558246316</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.3189235171293792</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.99902070401357124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>9216</v>
+      </c>
+      <c r="C19">
+        <v>226.71700000000001</v>
+      </c>
+      <c r="D19">
+        <v>227.08</v>
+      </c>
+      <c r="E19">
+        <v>226.8</v>
+      </c>
+      <c r="F19">
+        <v>226.9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.3738449256121066</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1.3453320415712524</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1.3093342151675484</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0.99537681798148958</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>64</v>
+      </c>
+      <c r="E27">
+        <v>256</v>
+      </c>
+      <c r="F27">
+        <v>1024</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="D28">
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="E28">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F28">
+        <v>0.80383000000000004</v>
+      </c>
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>64</v>
+      </c>
+      <c r="K28">
+        <v>256</v>
+      </c>
+      <c r="L28">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>256</v>
+      </c>
+      <c r="C29">
+        <v>2.29</v>
+      </c>
+      <c r="D29">
+        <v>2.327</v>
+      </c>
+      <c r="E29">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.998</v>
+      </c>
+      <c r="H29">
+        <v>64</v>
+      </c>
+      <c r="I29">
+        <v>1.167</v>
+      </c>
+      <c r="J29">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="L29">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1024</v>
+      </c>
+      <c r="C30">
+        <v>3.266</v>
+      </c>
+      <c r="D30">
+        <v>3.34</v>
+      </c>
+      <c r="E30">
+        <v>3.4279999999999999</v>
+      </c>
+      <c r="F30">
+        <v>2.27</v>
+      </c>
+      <c r="H30">
+        <v>256</v>
+      </c>
+      <c r="I30">
+        <v>1.454</v>
+      </c>
+      <c r="J30">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="K30">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4096</v>
+      </c>
+      <c r="C31">
+        <v>9.3249999999999993</v>
+      </c>
+      <c r="D31">
+        <v>9.2889999999999997</v>
+      </c>
+      <c r="E31">
+        <v>9.6839999999999993</v>
+      </c>
+      <c r="F31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="H31">
+        <v>1024</v>
+      </c>
+      <c r="I31">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="J31">
+        <v>2.1139999999999999</v>
+      </c>
+      <c r="K31">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="L31">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="M31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>9216</v>
+      </c>
+      <c r="C32">
+        <v>17.8</v>
+      </c>
+      <c r="D32">
+        <v>17.753</v>
+      </c>
+      <c r="E32">
+        <v>17.5</v>
+      </c>
+      <c r="F32">
+        <v>9.86</v>
+      </c>
+      <c r="H32">
+        <v>4096</v>
+      </c>
+      <c r="I32">
+        <v>5.141</v>
+      </c>
+      <c r="J32">
+        <v>5.1840000000000002</v>
+      </c>
+      <c r="K32">
+        <v>5.2160000000000002</v>
+      </c>
+      <c r="L32">
+        <v>5.1669999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>9216</v>
+      </c>
+      <c r="I33">
+        <v>9.8789999999999996</v>
+      </c>
+      <c r="J33">
+        <v>9.81</v>
+      </c>
+      <c r="K33">
+        <v>9.84</v>
+      </c>
+      <c r="L33">
+        <v>9.7899999999999991</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H26:L26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Lav3/L32.xlsx
+++ b/Lav3/L32.xlsx
@@ -33,6 +33,54 @@
   </authors>
   <commentList>
     <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tudor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+128x72 mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tudor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+128x72 mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,12 +176,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="J50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tudor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+128x72 mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tudor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+128x72 mesh</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Input size (cells)</t>
   </si>
@@ -141,26 +237,86 @@
     <t>Block size (threads/block) (seconds)</t>
   </si>
   <si>
-    <t>Original code on GT 750Ti (similde)</t>
-  </si>
-  <si>
     <t>DP</t>
   </si>
   <si>
-    <t>ACCELERATED</t>
+    <t>(6000 = 23.637)</t>
   </si>
   <si>
-    <t>Original code on GTX 860M (600 ms)</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>(6000 = 23.637)</t>
+    <t>Benchmark using the SIMILDE GT 750 Ti (Maxwell)</t>
+  </si>
+  <si>
+    <t>Paper benchmark Double Precision GeForce GT 640 (Kepler)</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Memory bandwidth</t>
+  </si>
+  <si>
+    <t>SM units</t>
+  </si>
+  <si>
+    <t>GT 750 Ti</t>
+  </si>
+  <si>
+    <t>GT 640</t>
+  </si>
+  <si>
+    <t>GTX 860M</t>
+  </si>
+  <si>
+    <t>Clock speed (MHz)</t>
+  </si>
+  <si>
+    <t>1 GB</t>
+  </si>
+  <si>
+    <t>28.8 GB/s (DDR3)</t>
+  </si>
+  <si>
+    <t>2 GB</t>
+  </si>
+  <si>
+    <t>86.4 GB/s (GDDR5)</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>GK107 (Kepler)</t>
+  </si>
+  <si>
+    <t>GM107 (Maxwell)</t>
+  </si>
+  <si>
+    <t>80 GB/s (GDDR5)</t>
+  </si>
+  <si>
+    <t>CUDA cores</t>
+  </si>
+  <si>
+    <t>Updated code GTX 750 Ti</t>
+  </si>
+  <si>
+    <t>Updated code GTX 860M</t>
+  </si>
+  <si>
+    <t>Original code GTX 750 Ti</t>
+  </si>
+  <si>
+    <t>Original code GTX 860M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,16 +346,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -207,17 +403,434 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -286,11 +899,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>Paper benchmark Double Precision GeForce GT 640 (Kepler)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -321,7 +934,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -345,24 +958,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:f>Sheet1!$K$4:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.42</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.305</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.353000000000002</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.81899999999999</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>311.47399999999999</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,11 +987,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>Benchmark using the SIMILDE GT 750 Ti (Maxwell)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -433,134 +1046,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$4:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.94</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.82</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.124000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170.55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>296.95699999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$4:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.923</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7539999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>129.55799999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>225.851</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -571,11 +1056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204375648"/>
-        <c:axId val="204376208"/>
+        <c:axId val="662972032"/>
+        <c:axId val="662968112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204375648"/>
+        <c:axId val="662972032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +1103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204376208"/>
+        <c:crossAx val="662968112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -626,7 +1111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204376208"/>
+        <c:axId val="662968112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,311 +1162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204375648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9216</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$15:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.9260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.833</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.457000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>129.31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>226.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="662534304"/>
-        <c:axId val="662534864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="662534304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="662534864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="662534864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="662534304"/>
+        <c:crossAx val="662972032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1031,46 +1212,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1613,527 +1754,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2143,38 +1781,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2446,174 +2052,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M33"/>
+  <dimension ref="B1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" style="7" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="I1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25"/>
+    </row>
+    <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="I2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="P2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>64</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>256</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <v>1024</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="6">
+        <v>32</v>
+      </c>
+      <c r="K3" s="6">
         <v>64</v>
       </c>
-      <c r="C4">
+      <c r="L3" s="6">
+        <v>256</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1024</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="2">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2">
+        <v>64</v>
+      </c>
+      <c r="S3" s="2">
+        <v>256</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>64</v>
+      </c>
+      <c r="C4" s="6">
         <v>14.42</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>15.422000000000001</v>
       </c>
-      <c r="E4">
-        <v>3.94</v>
-      </c>
-      <c r="F4">
-        <v>3.923</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4">
+        <f>SUM(C4:F4)/2</f>
+        <v>14.920999999999999</v>
+      </c>
+      <c r="I4" s="6">
+        <v>64</v>
+      </c>
+      <c r="J4" s="6">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6">
+        <v>16</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4">
+        <f>SUM(J4:M4)/2</f>
+        <v>17.5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="13">
+        <f>(J4/C4)-1</f>
+        <v>0.317614424410541</v>
+      </c>
+      <c r="R4" s="13">
+        <f>(K4/D4)-1</f>
+        <v>3.747892620931137E-2</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>256</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>21.305</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>21.530999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>22.82</v>
       </c>
-      <c r="F5">
-        <v>9.7539999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="F5" s="6"/>
+      <c r="G5">
+        <f>SUM(C5:F5)/3</f>
+        <v>21.885333333333335</v>
+      </c>
+      <c r="I5" s="6">
+        <v>256</v>
+      </c>
+      <c r="J5" s="6">
+        <v>19</v>
+      </c>
+      <c r="K5" s="6">
+        <v>16</v>
+      </c>
+      <c r="L5" s="6">
+        <v>17</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5">
+        <f>SUM(J5:M5)/3</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="P5" s="2">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" ref="Q5:Q8" si="0">(J5/C5)-1</f>
+        <v>-0.10819056559493079</v>
+      </c>
+      <c r="R5" s="12">
+        <f>(K5/D5)-1</f>
+        <v>-0.25688542102085365</v>
+      </c>
+      <c r="S5" s="12">
+        <f>(L5/E5)-1</f>
+        <v>-0.25503943908851889</v>
+      </c>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>1024</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>47.353000000000002</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>48.125999999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>48.124000000000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="G6">
+        <f t="shared" ref="G5:G8" si="1">SUM(C6:F6)/2</f>
+        <v>90.301500000000004</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1024</v>
+      </c>
+      <c r="J6" s="6">
+        <v>26</v>
+      </c>
+      <c r="K6" s="6">
+        <v>22</v>
+      </c>
+      <c r="L6" s="6">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6">
+        <v>35</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6" si="2">SUM(J6:M6)/2</f>
+        <v>52</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.45093235909023721</v>
+      </c>
+      <c r="R6" s="12">
+        <f>(K6/D6)-1</f>
+        <v>-0.54286664173211985</v>
+      </c>
+      <c r="S6" s="12">
+        <f>(L6/E6)-1</f>
+        <v>-0.56362729615160845</v>
+      </c>
+      <c r="T6" s="12">
+        <f>(M6/F6)-1</f>
+        <v>-5.4054054054054057E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>4096</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>171.81899999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>168.398</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>170.55</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>129.55799999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="G7">
+        <f>SUM(C7:F7)/4</f>
+        <v>160.08125000000001</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4096</v>
+      </c>
+      <c r="J7" s="6">
+        <v>88</v>
+      </c>
+      <c r="K7" s="6">
+        <v>66</v>
+      </c>
+      <c r="L7" s="6">
+        <v>81</v>
+      </c>
+      <c r="M7" s="6">
+        <v>82</v>
+      </c>
+      <c r="N7">
+        <f>SUM(J7:M7)/4</f>
+        <v>79.25</v>
+      </c>
+      <c r="P7" s="2">
+        <v>4096</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.48783312672056056</v>
+      </c>
+      <c r="R7" s="12">
+        <f>(K7/D7)-1</f>
+        <v>-0.60807135476668361</v>
+      </c>
+      <c r="S7" s="12">
+        <f>(L7/E7)-1</f>
+        <v>-0.52506596306068598</v>
+      </c>
+      <c r="T7" s="12">
+        <f>(M7/F7)-1</f>
+        <v>-0.36707883727751278</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>9216</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>311.47399999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>305.49799999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>296.95699999999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>225.851</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="G8">
+        <f>SUM(C8:F8)/4</f>
+        <v>284.94499999999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>9216</v>
+      </c>
+      <c r="J8" s="6">
+        <v>191</v>
+      </c>
+      <c r="K8" s="6">
+        <v>127</v>
+      </c>
+      <c r="L8" s="6">
+        <v>175</v>
+      </c>
+      <c r="M8" s="6">
+        <v>202</v>
+      </c>
+      <c r="N8">
+        <f>SUM(J8:M8)/4</f>
+        <v>173.75</v>
+      </c>
+      <c r="P8" s="2">
+        <v>9216</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.38678669808715971</v>
+      </c>
+      <c r="R8" s="12">
+        <f>(K8/D8)-1</f>
+        <v>-0.58428533083686307</v>
+      </c>
+      <c r="S8" s="12">
+        <f>(L8/E8)-1</f>
+        <v>-0.41068908966618056</v>
+      </c>
+      <c r="T8" s="12">
+        <f>(M8/F8)-1</f>
+        <v>-0.10560502278050576</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10">
         <v>32</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="10">
         <v>64</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="10">
         <v>256</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="10">
         <v>1024</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>64</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>6.8339999999999996</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>3.9260000000000002</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>3.9260000000000002</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>3.9180000000000001</v>
       </c>
       <c r="H15">
@@ -2621,233 +2500,245 @@
         <v>2.1100380450687739</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:K19" si="0">D4/D15</f>
+        <f t="shared" ref="I15:K19" si="3">D4/D15</f>
         <v>3.9281711665817625</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>1.0035659704533877</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
-        <v>1.0012761613067891</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
         <v>256</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>12.5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>12.932</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>12.833</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>9.891</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H19" si="1">C5/C16</f>
+        <f t="shared" ref="H16:H19" si="4">C5/C16</f>
         <v>1.7043999999999999</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6649396845035569</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7782280059222317</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0.98614902436558483</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B17" s="6">
         <v>1024</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>36.753</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>35.89</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>35.457000000000001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>37.840000000000003</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.288411830326776</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3409306213429923</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3572496263079223</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.97780126849894278</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B18" s="6">
         <v>4096</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>129.18799999999999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>135.03</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>129.31</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>129.685</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3299919497166919</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2471154558246316</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3189235171293792</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.99902070401357124</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B19" s="6">
         <v>9216</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>226.71700000000001</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>227.08</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>226.8</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>226.9</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3738449256121066</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3453320415712524</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3093342151675484</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.99537681798148958</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C27">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10">
         <v>32</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="10">
         <v>64</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="10">
         <v>256</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="10">
         <v>1024</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" s="7">
         <v>64</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>2.1509999999999998</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>2.2480000000000002</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>0.92300000000000004</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <v>0.80383000000000004</v>
       </c>
-      <c r="I28">
+      <c r="H28" s="9"/>
+      <c r="I28" s="10">
         <v>32</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="10">
         <v>64</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="10">
         <v>256</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="10">
         <v>1024</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="7">
         <v>256</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>2.29</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>2.327</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>2.6059999999999999</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>0.998</v>
       </c>
       <c r="H29">
@@ -2867,19 +2758,19 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="7">
         <v>1024</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>3.266</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>3.34</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>3.4279999999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <v>2.27</v>
       </c>
       <c r="H30">
@@ -2899,19 +2790,19 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="7">
         <v>4096</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>9.3249999999999993</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <v>9.2889999999999997</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>9.6839999999999993</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>5.1100000000000003</v>
       </c>
       <c r="H31">
@@ -2930,23 +2821,23 @@
         <v>2.3330000000000002</v>
       </c>
       <c r="M31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="B32" s="7">
         <v>9216</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>17.8</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>17.753</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>17.5</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <v>9.86</v>
       </c>
       <c r="H32">
@@ -2965,7 +2856,7 @@
         <v>5.1669999999999998</v>
       </c>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>9216</v>
       </c>
@@ -2982,10 +2873,353 @@
         <v>9.7899999999999991</v>
       </c>
     </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="19">
+        <v>902</v>
+      </c>
+      <c r="D37" s="19">
+        <v>1020</v>
+      </c>
+      <c r="E37" s="19">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="19">
+        <v>2</v>
+      </c>
+      <c r="D40" s="19">
+        <v>5</v>
+      </c>
+      <c r="E40" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="19">
+        <v>384</v>
+      </c>
+      <c r="D41" s="19">
+        <v>640</v>
+      </c>
+      <c r="E41" s="19">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="36"/>
+    </row>
+    <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="37"/>
+    </row>
+    <row r="45" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="56"/>
+      <c r="J45" s="57">
+        <v>32</v>
+      </c>
+      <c r="K45" s="57">
+        <v>64</v>
+      </c>
+      <c r="L45" s="57">
+        <v>256</v>
+      </c>
+      <c r="M45" s="58">
+        <v>1024</v>
+      </c>
+      <c r="N45" s="59">
+        <v>32</v>
+      </c>
+      <c r="O45" s="57">
+        <v>64</v>
+      </c>
+      <c r="P45" s="57">
+        <v>256</v>
+      </c>
+      <c r="Q45" s="58">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I46" s="46">
+        <v>64</v>
+      </c>
+      <c r="J46" s="47">
+        <f>C28*10</f>
+        <v>21.509999999999998</v>
+      </c>
+      <c r="K46" s="47">
+        <f t="shared" ref="K46" si="5">D28*10</f>
+        <v>22.480000000000004</v>
+      </c>
+      <c r="L46" s="47"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="49">
+        <f>I29*10</f>
+        <v>11.67</v>
+      </c>
+      <c r="O46" s="50">
+        <f>J29*10</f>
+        <v>11.020000000000001</v>
+      </c>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="51"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I47" s="31">
+        <v>256</v>
+      </c>
+      <c r="J47" s="6">
+        <f t="shared" ref="J47:J50" si="6">C29*10</f>
+        <v>22.9</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" ref="K47:K50" si="7">D29*10</f>
+        <v>23.27</v>
+      </c>
+      <c r="L47" s="6">
+        <f t="shared" ref="L47:L50" si="8">E29*10</f>
+        <v>26.06</v>
+      </c>
+      <c r="M47" s="32"/>
+      <c r="N47" s="38">
+        <f>I30*10</f>
+        <v>14.54</v>
+      </c>
+      <c r="O47" s="2">
+        <f>J30*10</f>
+        <v>14.34</v>
+      </c>
+      <c r="P47" s="2">
+        <f>K30*10</f>
+        <v>14.670000000000002</v>
+      </c>
+      <c r="Q47" s="39"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I48" s="31">
+        <v>1024</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" si="6"/>
+        <v>32.659999999999997</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" si="7"/>
+        <v>33.4</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="8"/>
+        <v>34.28</v>
+      </c>
+      <c r="M48" s="32">
+        <f t="shared" ref="M48:M50" si="9">F30*10</f>
+        <v>22.7</v>
+      </c>
+      <c r="N48" s="38">
+        <f>I31*10</f>
+        <v>21.240000000000002</v>
+      </c>
+      <c r="O48" s="2">
+        <f>J31*10</f>
+        <v>21.14</v>
+      </c>
+      <c r="P48" s="2">
+        <f>K31*10</f>
+        <v>21.230000000000004</v>
+      </c>
+      <c r="Q48" s="39">
+        <f>L31*10</f>
+        <v>23.330000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I49" s="31">
+        <v>4096</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" si="6"/>
+        <v>93.25</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="7"/>
+        <v>92.89</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="8"/>
+        <v>96.839999999999989</v>
+      </c>
+      <c r="M49" s="32">
+        <f t="shared" si="9"/>
+        <v>51.1</v>
+      </c>
+      <c r="N49" s="38">
+        <f>I32*10</f>
+        <v>51.41</v>
+      </c>
+      <c r="O49" s="2">
+        <f>J32*10</f>
+        <v>51.84</v>
+      </c>
+      <c r="P49" s="2">
+        <f>K32*10</f>
+        <v>52.160000000000004</v>
+      </c>
+      <c r="Q49" s="39">
+        <f>L32*10</f>
+        <v>51.67</v>
+      </c>
+    </row>
+    <row r="50" spans="9:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="33">
+        <v>9216</v>
+      </c>
+      <c r="J50" s="34">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="K50" s="34">
+        <f t="shared" si="7"/>
+        <v>177.53</v>
+      </c>
+      <c r="L50" s="34">
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+      <c r="M50" s="35">
+        <f t="shared" si="9"/>
+        <v>98.6</v>
+      </c>
+      <c r="N50" s="40">
+        <f>I33*10</f>
+        <v>98.789999999999992</v>
+      </c>
+      <c r="O50" s="41">
+        <f>J33*10</f>
+        <v>98.100000000000009</v>
+      </c>
+      <c r="P50" s="41">
+        <f>K33*10</f>
+        <v>98.4</v>
+      </c>
+      <c r="Q50" s="42">
+        <f>L33*10</f>
+        <v>97.899999999999991</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="20">
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="H26:L26"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
